--- a/data/trans_orig/Predimed_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>23082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10683</v>
+        <v>11647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45854</v>
+        <v>41853</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06519957388168728</v>
+        <v>0.06519957388168729</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03017706931609545</v>
+        <v>0.03289819853582337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1295228223620511</v>
+        <v>0.1182225841433722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -762,19 +762,19 @@
         <v>43575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28274</v>
+        <v>28320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61892</v>
+        <v>64955</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1334294253934592</v>
+        <v>0.1334294253934591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08657813395685031</v>
+        <v>0.08671856301794867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.189515841237071</v>
+        <v>0.1988967280596962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -783,19 +783,19 @@
         <v>66657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47913</v>
+        <v>45912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92431</v>
+        <v>91365</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09793890660280694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07039781372750264</v>
+        <v>0.06745830232797714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1358092136394362</v>
+        <v>0.1342421643050412</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>330938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308166</v>
+        <v>312167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343337</v>
+        <v>342373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9348004261183126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8704771776379551</v>
+        <v>0.8817774158566277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9698229306839047</v>
+        <v>0.9671018014641766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>167</v>
@@ -833,19 +833,19 @@
         <v>283002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>264685</v>
+        <v>261622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298303</v>
+        <v>298257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8665705746065407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8104841587629286</v>
+        <v>0.8011032719403041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9134218660431496</v>
+        <v>0.9132814369820519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -854,19 +854,19 @@
         <v>613940</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>588166</v>
+        <v>589232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>632684</v>
+        <v>634685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.902061093397193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8641907863605633</v>
+        <v>0.8657578356949588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9296021862724971</v>
+        <v>0.9325416976720226</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>72791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51573</v>
+        <v>53284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95387</v>
+        <v>95271</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1609761585850314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.11405277245208</v>
+        <v>0.117836519644444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.210947150724583</v>
+        <v>0.2106902070621924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -979,19 +979,19 @@
         <v>73126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58013</v>
+        <v>57292</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92215</v>
+        <v>91661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1575141646631582</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1249611876245145</v>
+        <v>0.123407292280671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1986323139095763</v>
+        <v>0.1974383497479552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -1000,19 +1000,19 @@
         <v>145917</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120947</v>
+        <v>119864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173944</v>
+        <v>175465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1592223656093665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1319751918567819</v>
+        <v>0.1307939411896017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1898048709631504</v>
+        <v>0.191465083038337</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>379392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356796</v>
+        <v>356912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>400610</v>
+        <v>398899</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8390238414149687</v>
+        <v>0.8390238414149686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7890528492754171</v>
+        <v>0.7893097929378077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8859472275479201</v>
+        <v>0.882163480355556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -1050,19 +1050,19 @@
         <v>391125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372036</v>
+        <v>372590</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406238</v>
+        <v>406959</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8424858353368418</v>
+        <v>0.8424858353368417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8013676860904236</v>
+        <v>0.8025616502520452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8750388123754859</v>
+        <v>0.8765927077193291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>616</v>
@@ -1071,19 +1071,19 @@
         <v>770517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742490</v>
+        <v>740969</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>795487</v>
+        <v>796570</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8407776343906335</v>
+        <v>0.8407776343906336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8101951290368496</v>
+        <v>0.808534916961663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.868024808143218</v>
+        <v>0.8692060588103984</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>106899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87885</v>
+        <v>87911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128462</v>
+        <v>129065</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1820938196023259</v>
+        <v>0.182093819602326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1497057554488991</v>
+        <v>0.1497496735695817</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2188259513126463</v>
+        <v>0.2198531400193726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -1196,19 +1196,19 @@
         <v>104696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89125</v>
+        <v>89545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121234</v>
+        <v>120813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1768413117502796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1505404379961661</v>
+        <v>0.1512497582408771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2047748773373216</v>
+        <v>0.2040645988111595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -1217,19 +1217,19 @@
         <v>211595</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185982</v>
+        <v>185807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239978</v>
+        <v>237247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1794564708287223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1577338280743337</v>
+        <v>0.1575856550530608</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2035285978672122</v>
+        <v>0.2012123030905503</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>480153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458590</v>
+        <v>457987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499167</v>
+        <v>499141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8179061803976739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7811740486873539</v>
+        <v>0.7801468599806274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8502942445511013</v>
+        <v>0.8502503264304185</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>666</v>
@@ -1267,19 +1267,19 @@
         <v>487338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>470800</v>
+        <v>471221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>502909</v>
+        <v>502489</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8231586882497203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7952251226626788</v>
+        <v>0.7959354011888407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8494595620038345</v>
+        <v>0.8487502417591227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1097</v>
@@ -1288,19 +1288,19 @@
         <v>967491</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939108</v>
+        <v>941839</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>993104</v>
+        <v>993279</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8205435291712776</v>
+        <v>0.8205435291712775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7964714021327882</v>
+        <v>0.7987876969094497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8422661719256664</v>
+        <v>0.8424143449469395</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>115984</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96980</v>
+        <v>97464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136512</v>
+        <v>136518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1757157969878484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1469241786669322</v>
+        <v>0.1476570777700062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2068146840794318</v>
+        <v>0.2068241309773391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>227</v>
@@ -1413,19 +1413,19 @@
         <v>146792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131195</v>
+        <v>131007</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164859</v>
+        <v>164167</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2078409327321813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1857584130307911</v>
+        <v>0.1854919017892616</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2334230455849037</v>
+        <v>0.2324432289512383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>341</v>
@@ -1434,19 +1434,19 @@
         <v>262776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>238580</v>
+        <v>238637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>291092</v>
+        <v>290025</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1923214925382433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1746131438636671</v>
+        <v>0.174654819681766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2130453316023652</v>
+        <v>0.2122644417268972</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>544084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523556</v>
+        <v>523550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>563088</v>
+        <v>562604</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8242842030121517</v>
+        <v>0.8242842030121516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7931853159205685</v>
+        <v>0.793175869022661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8530758213330679</v>
+        <v>0.8523429222299937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>868</v>
@@ -1484,19 +1484,19 @@
         <v>559477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>541410</v>
+        <v>542102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>575074</v>
+        <v>575262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7921590672678187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7665769544150962</v>
+        <v>0.7675567710487617</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.814241586969209</v>
+        <v>0.8145080982107384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1388</v>
@@ -1505,19 +1505,19 @@
         <v>1103561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1075245</v>
+        <v>1076312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1127757</v>
+        <v>1127700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8076785074617566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7869546683976346</v>
+        <v>0.7877355582731027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.825386856136333</v>
+        <v>0.825345180318234</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>109213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90984</v>
+        <v>93111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128123</v>
+        <v>128549</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1922291149437278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1601437698158786</v>
+        <v>0.1638880502351852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2255122852583794</v>
+        <v>0.2262636364863766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -1630,19 +1630,19 @@
         <v>114575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101280</v>
+        <v>101396</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130268</v>
+        <v>130189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1979794425809886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750071662038481</v>
+        <v>0.175207930184555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2250975571492148</v>
+        <v>0.224961084031378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>304</v>
@@ -1651,19 +1651,19 @@
         <v>223788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>203782</v>
+        <v>201068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247092</v>
+        <v>248964</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.195130802377693</v>
+        <v>0.1951308023776929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1776870408050785</v>
+        <v>0.1753198821415291</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2154506965958332</v>
+        <v>0.2170831665333346</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>458927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>440017</v>
+        <v>439591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>477156</v>
+        <v>475029</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8077708850562723</v>
+        <v>0.8077708850562721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7744877147416207</v>
+        <v>0.7737363635136235</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8398562301841215</v>
+        <v>0.836111949764815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>767</v>
@@ -1701,19 +1701,19 @@
         <v>464145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>448452</v>
+        <v>448531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>477440</v>
+        <v>477324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8020205574190113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7749024428507847</v>
+        <v>0.7750389159686218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8249928337961518</v>
+        <v>0.8247920698154448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1277</v>
@@ -1722,19 +1722,19 @@
         <v>923073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899769</v>
+        <v>897897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>943079</v>
+        <v>945793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.804869197622307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7845493034041666</v>
+        <v>0.7829168334666654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8223129591949216</v>
+        <v>0.824680117858471</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>97976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85199</v>
+        <v>84494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114765</v>
+        <v>112928</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2605692200158123</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2265881347874771</v>
+        <v>0.2247131488041413</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3052198229554384</v>
+        <v>0.3003355327610222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -1847,19 +1847,19 @@
         <v>107302</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95725</v>
+        <v>95095</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121630</v>
+        <v>120038</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2547968297169775</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2273053158010053</v>
+        <v>0.2258111081835183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2888205580195684</v>
+        <v>0.2850400143431365</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>339</v>
@@ -1868,19 +1868,19 @@
         <v>205278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>186090</v>
+        <v>186425</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226352</v>
+        <v>227445</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2575196543964334</v>
+        <v>0.2575196543964335</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.233448809096324</v>
+        <v>0.2338688981181404</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2839570298569819</v>
+        <v>0.2853278996683551</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>278031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261242</v>
+        <v>263079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290808</v>
+        <v>291513</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7394307799841878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6947801770445616</v>
+        <v>0.6996644672389779</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7734118652125228</v>
+        <v>0.7752868511958588</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>585</v>
@@ -1918,19 +1918,19 @@
         <v>313826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>299498</v>
+        <v>301090</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325403</v>
+        <v>326033</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7452031702830224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7111794419804314</v>
+        <v>0.7149599856568635</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7726946841989948</v>
+        <v>0.7741888918164818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>985</v>
@@ -1939,19 +1939,19 @@
         <v>591856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>570782</v>
+        <v>569689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>611044</v>
+        <v>610709</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7424803456035665</v>
+        <v>0.7424803456035668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7160429701430181</v>
+        <v>0.7146721003316444</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7665511909036762</v>
+        <v>0.7661311018818594</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>51530</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41252</v>
+        <v>39986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63032</v>
+        <v>62512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1841550736821599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1474238405289976</v>
+        <v>0.1428997550138779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.225258424034272</v>
+        <v>0.2234013681627158</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -2064,19 +2064,19 @@
         <v>74122</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64015</v>
+        <v>62397</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88290</v>
+        <v>86900</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.175404133461888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1514882665161347</v>
+        <v>0.1476587501452479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2089327326959856</v>
+        <v>0.2056424302113384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -2085,19 +2085,19 @@
         <v>125652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111116</v>
+        <v>109773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>142829</v>
+        <v>143682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1788903331977109</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1581960387006756</v>
+        <v>0.1562829726422651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2033452124679435</v>
+        <v>0.2045591815438593</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>228291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>216789</v>
+        <v>217309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>238569</v>
+        <v>239835</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.81584492631784</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7747415759657282</v>
+        <v>0.7765986318372844</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8525761594710025</v>
+        <v>0.8571002449861224</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>658</v>
@@ -2135,19 +2135,19 @@
         <v>348454</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>334286</v>
+        <v>335676</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>358561</v>
+        <v>360179</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8245958665381121</v>
+        <v>0.8245958665381119</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7910672673040148</v>
+        <v>0.7943575697886613</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8485117334838653</v>
+        <v>0.8523412498547517</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1004</v>
@@ -2156,19 +2156,19 @@
         <v>576744</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>559567</v>
+        <v>558714</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>591280</v>
+        <v>592623</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8211096668022889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7966547875320562</v>
+        <v>0.7954408184561405</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.841803961299324</v>
+        <v>0.8437170273577346</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>577475</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>987</v>
@@ -2281,19 +2281,19 @@
         <v>664187</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1891432948173653</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1559</v>
@@ -2302,19 +2302,19 @@
         <v>1241662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1828973555378529</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2699816</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2650403</v>
+        <v>2645285</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2746429</v>
+        <v>2747129</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8237950477475849</v>
+        <v>0.8237950477475852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8087175592093095</v>
+        <v>0.807156038308494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8380181547355652</v>
+        <v>0.8382317545281305</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4078</v>
@@ -2352,19 +2352,19 @@
         <v>2847367</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2801686</v>
+        <v>2803573</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2885678</v>
+        <v>2886412</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8108567051826348</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.797847908864095</v>
+        <v>0.7983851629440524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8217666624163923</v>
+        <v>0.8219756691606278</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6683</v>
@@ -2373,19 +2373,19 @@
         <v>5547183</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5482820</v>
+        <v>5482372</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5608139</v>
+        <v>5607124</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8171026444621471</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8076219621890268</v>
+        <v>0.807555927287214</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8260815349770394</v>
+        <v>0.8259318902956774</v>
       </c>
     </row>
     <row r="27">
